--- a/Livermore1.3/report/trade_history.xlsx
+++ b/Livermore1.3/report/trade_history.xlsx
@@ -280,6 +280,12 @@
     <t>10.33%</t>
   </si>
   <si>
+    <t>6.55%</t>
+  </si>
+  <si>
+    <t>9.11%</t>
+  </si>
+  <si>
     <t>2020-12-28 12:27:37</t>
   </si>
   <si>
@@ -310,12 +316,6 @@
     <t>-8.12%</t>
   </si>
   <si>
-    <t>49.94%</t>
-  </si>
-  <si>
-    <t>53.55%</t>
-  </si>
-  <si>
     <t>2021-01-06 04:57:48</t>
   </si>
   <si>
@@ -424,7 +424,7 @@
     <t>10.12%</t>
   </si>
   <si>
-    <t>-29.53%</t>
+    <t>-0.83%</t>
   </si>
   <si>
     <t>2021-02-03 04:30:46</t>
@@ -541,7 +541,7 @@
     <t>60.57%</t>
   </si>
   <si>
-    <t>37.45%</t>
+    <t>93.42%</t>
   </si>
   <si>
     <t>2021-04-13 16:47:44</t>
@@ -754,7 +754,7 @@
     <t>92.56%</t>
   </si>
   <si>
-    <t>164.67%</t>
+    <t>272.46%</t>
   </si>
   <si>
     <t>306.40%</t>
@@ -1396,10 +1396,10 @@
         <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="V3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="W3" t="s">
         <v>247</v>
@@ -1704,7 +1704,7 @@
         <v>1671.45</v>
       </c>
       <c r="T8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="33" customHeight="1">
@@ -2245,11 +2245,20 @@
       <c r="S17" s="5">
         <v>1816.57</v>
       </c>
+      <c r="T17" t="s">
+        <v>136</v>
+      </c>
+      <c r="U17" t="s">
+        <v>175</v>
+      </c>
+      <c r="V17" t="s">
+        <v>246</v>
+      </c>
       <c r="X17" s="5"/>
     </row>
     <row r="18" spans="1:24" ht="33" customHeight="1">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -2294,10 +2303,10 @@
         <v>-63.64</v>
       </c>
       <c r="P18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2308,7 +2317,7 @@
     </row>
     <row r="19" spans="1:24" ht="33" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>26</v>
@@ -2353,10 +2362,10 @@
         <v>-8.09</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R19" s="5">
         <v>0</v>
@@ -2368,7 +2377,7 @@
     </row>
     <row r="20" spans="1:24" ht="33" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>26</v>
@@ -2383,7 +2392,7 @@
         <v>1948.47</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G20" s="4">
         <v>1911.07</v>
@@ -2413,25 +2422,16 @@
         <v>-239.6</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R20" s="4">
         <v>0</v>
       </c>
       <c r="S20" s="4">
         <v>2128.84</v>
-      </c>
-      <c r="T20" t="s">
-        <v>136</v>
-      </c>
-      <c r="U20" t="s">
-        <v>175</v>
-      </c>
-      <c r="V20" t="s">
-        <v>246</v>
       </c>
       <c r="X20" s="4"/>
     </row>
@@ -4665,18 +4665,18 @@
   <mergeCells count="15">
     <mergeCell ref="B1:W1"/>
     <mergeCell ref="T3:T7"/>
-    <mergeCell ref="T8:T19"/>
-    <mergeCell ref="U3:U19"/>
-    <mergeCell ref="V3:V19"/>
-    <mergeCell ref="T20:T28"/>
+    <mergeCell ref="T8:T16"/>
+    <mergeCell ref="U3:U16"/>
+    <mergeCell ref="V3:V16"/>
+    <mergeCell ref="T17:T28"/>
     <mergeCell ref="T29:T31"/>
     <mergeCell ref="T32:T38"/>
-    <mergeCell ref="U20:U38"/>
+    <mergeCell ref="U17:U38"/>
     <mergeCell ref="T39:T43"/>
     <mergeCell ref="T44:T51"/>
     <mergeCell ref="T52:T57"/>
     <mergeCell ref="U39:U57"/>
-    <mergeCell ref="V20:V57"/>
+    <mergeCell ref="V17:V57"/>
     <mergeCell ref="W3:W57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
